--- a/data/trans_dic/P16A20_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A20_2023-Provincia-trans_dic.xlsx
@@ -40,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -53,34 +53,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -513,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,21 +501,12 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="14" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para la alteración del tiroides en las últimas 2 semanas (tasa de respuesta: 99,91%)</t>
+          <t>Población que ha consumido medicamentos para la alteración del tiroides en las últimas dos semanas (tasa de respuesta: 99,82%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -552,85 +515,31 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -642,15 +551,6 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -664,39 +564,12 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0</v>
+        <v>0.01396320599770716</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0</v>
+        <v>0.06252303468154029</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5" t="n">
-        <v>0.01396320599770716</v>
-      </c>
-      <c r="G4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5" t="n">
-        <v>0.06252303468154029</v>
-      </c>
-      <c r="K4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="5" t="n">
         <v>0.03813663090166853</v>
       </c>
     </row>
@@ -707,22 +580,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="n">
+      <c r="C5" s="5" t="n">
         <v>0.005202954314527917</v>
       </c>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="n">
+      <c r="D5" s="5" t="n">
         <v>0.04307896318470892</v>
       </c>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="n">
+      <c r="E5" s="5" t="n">
         <v>0.02646192245852053</v>
       </c>
     </row>
@@ -733,22 +597,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="n">
+      <c r="C6" s="5" t="n">
         <v>0.03101882405565813</v>
       </c>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="n">
+      <c r="D6" s="5" t="n">
         <v>0.08413802166578167</v>
       </c>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="n">
+      <c r="E6" s="5" t="n">
         <v>0.05208114307268016</v>
       </c>
     </row>
@@ -764,39 +619,12 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0</v>
+        <v>0.01066057200389226</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0</v>
+        <v>0.0598013481326938</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>0.01066057200389226</v>
-      </c>
-      <c r="G7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5" t="n">
-        <v>0.0598013481326938</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5" t="n">
         <v>0.03558650320663798</v>
       </c>
     </row>
@@ -807,22 +635,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="n">
+      <c r="C8" s="5" t="n">
         <v>0.003776339101605685</v>
       </c>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="n">
+      <c r="D8" s="5" t="n">
         <v>0.04193395508945831</v>
       </c>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="n">
+      <c r="E8" s="5" t="n">
         <v>0.02577829398809193</v>
       </c>
     </row>
@@ -833,22 +652,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="n">
+      <c r="C9" s="5" t="n">
         <v>0.02396035378233925</v>
       </c>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="n">
+      <c r="D9" s="5" t="n">
         <v>0.08151192157184904</v>
       </c>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="n">
+      <c r="E9" s="5" t="n">
         <v>0.04700850693353963</v>
       </c>
     </row>
@@ -864,39 +674,12 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0</v>
+        <v>0.01391962031376713</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0</v>
+        <v>0.0730677677558406</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>0.01391962031376713</v>
-      </c>
-      <c r="G10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5" t="n">
-        <v>0.0730677677558406</v>
-      </c>
-      <c r="K10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="5" t="n">
         <v>0.0452701364895538</v>
       </c>
     </row>
@@ -907,22 +690,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="n">
+      <c r="C11" s="5" t="n">
         <v>0.005640324632860339</v>
       </c>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="n">
+      <c r="D11" s="5" t="n">
         <v>0.05318787552167983</v>
       </c>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="n">
+      <c r="E11" s="5" t="n">
         <v>0.03328253911631726</v>
       </c>
     </row>
@@ -933,22 +707,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="n">
+      <c r="C12" s="5" t="n">
         <v>0.02952530894821679</v>
       </c>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="n">
+      <c r="D12" s="5" t="n">
         <v>0.096229404853719</v>
       </c>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="n">
+      <c r="E12" s="5" t="n">
         <v>0.05984348522658529</v>
       </c>
     </row>
@@ -964,39 +729,12 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0</v>
+        <v>0.003149534433127129</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0</v>
+        <v>0.07793580981912653</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>0.003149534433127129</v>
-      </c>
-      <c r="G13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="5" t="n">
-        <v>0.07793580981912653</v>
-      </c>
-      <c r="K13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="5" t="n">
         <v>0.0428384524758184</v>
       </c>
     </row>
@@ -1007,22 +745,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="n">
+      <c r="C14" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="n">
+      <c r="D14" s="5" t="n">
         <v>0.05763677687906205</v>
       </c>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="n">
+      <c r="E14" s="5" t="n">
         <v>0.03135442476630988</v>
       </c>
     </row>
@@ -1033,22 +762,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="n">
+      <c r="C15" s="5" t="n">
         <v>0.0101920901133271</v>
       </c>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="n">
+      <c r="D15" s="5" t="n">
         <v>0.1001579563563998</v>
       </c>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="n">
+      <c r="E15" s="5" t="n">
         <v>0.05709038570008471</v>
       </c>
     </row>
@@ -1064,39 +784,12 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0</v>
+        <v>0.02176709102482365</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0</v>
+        <v>0.08692645655618784</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="5" t="n">
-        <v>0.02176709102482365</v>
-      </c>
-      <c r="G16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="5" t="n">
-        <v>0.08692645655618784</v>
-      </c>
-      <c r="K16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="5" t="n">
         <v>0.05594157249385029</v>
       </c>
     </row>
@@ -1107,22 +800,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr"/>
-      <c r="D17" s="5" t="inlineStr"/>
-      <c r="E17" s="5" t="inlineStr"/>
-      <c r="F17" s="5" t="n">
+      <c r="C17" s="5" t="n">
         <v>0.006636329327301083</v>
       </c>
-      <c r="G17" s="5" t="inlineStr"/>
-      <c r="H17" s="5" t="inlineStr"/>
-      <c r="I17" s="5" t="inlineStr"/>
-      <c r="J17" s="5" t="n">
+      <c r="D17" s="5" t="n">
         <v>0.0654674104440864</v>
       </c>
-      <c r="K17" s="5" t="inlineStr"/>
-      <c r="L17" s="5" t="inlineStr"/>
-      <c r="M17" s="5" t="inlineStr"/>
-      <c r="N17" s="5" t="n">
+      <c r="E17" s="5" t="n">
         <v>0.04161492032224291</v>
       </c>
     </row>
@@ -1133,22 +817,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr"/>
-      <c r="D18" s="5" t="inlineStr"/>
-      <c r="E18" s="5" t="inlineStr"/>
-      <c r="F18" s="5" t="n">
+      <c r="C18" s="5" t="n">
         <v>0.05353979481664594</v>
       </c>
-      <c r="G18" s="5" t="inlineStr"/>
-      <c r="H18" s="5" t="inlineStr"/>
-      <c r="I18" s="5" t="inlineStr"/>
-      <c r="J18" s="5" t="n">
+      <c r="D18" s="5" t="n">
         <v>0.1167578533620781</v>
       </c>
-      <c r="K18" s="5" t="inlineStr"/>
-      <c r="L18" s="5" t="inlineStr"/>
-      <c r="M18" s="5" t="inlineStr"/>
-      <c r="N18" s="5" t="n">
+      <c r="E18" s="5" t="n">
         <v>0.07385276960987397</v>
       </c>
     </row>
@@ -1164,39 +839,12 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0</v>
+        <v>0.007642591181078899</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0</v>
+        <v>0.1023202860380596</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="5" t="n">
-        <v>0.007642591181078899</v>
-      </c>
-      <c r="G19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="5" t="n">
-        <v>0.1023202860380596</v>
-      </c>
-      <c r="K19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="5" t="n">
         <v>0.05436525920826898</v>
       </c>
     </row>
@@ -1207,22 +855,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr"/>
-      <c r="D20" s="5" t="inlineStr"/>
-      <c r="E20" s="5" t="inlineStr"/>
-      <c r="F20" s="5" t="n">
+      <c r="C20" s="5" t="n">
         <v>0.001839812591187538</v>
       </c>
-      <c r="G20" s="5" t="inlineStr"/>
-      <c r="H20" s="5" t="inlineStr"/>
-      <c r="I20" s="5" t="inlineStr"/>
-      <c r="J20" s="5" t="n">
+      <c r="D20" s="5" t="n">
         <v>0.07818103197530954</v>
       </c>
-      <c r="K20" s="5" t="inlineStr"/>
-      <c r="L20" s="5" t="inlineStr"/>
-      <c r="M20" s="5" t="inlineStr"/>
-      <c r="N20" s="5" t="n">
+      <c r="E20" s="5" t="n">
         <v>0.04303049509008183</v>
       </c>
     </row>
@@ -1233,22 +872,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr"/>
-      <c r="D21" s="5" t="inlineStr"/>
-      <c r="E21" s="5" t="inlineStr"/>
-      <c r="F21" s="5" t="n">
+      <c r="C21" s="5" t="n">
         <v>0.01974557928614219</v>
       </c>
-      <c r="G21" s="5" t="inlineStr"/>
-      <c r="H21" s="5" t="inlineStr"/>
-      <c r="I21" s="5" t="inlineStr"/>
-      <c r="J21" s="5" t="n">
+      <c r="D21" s="5" t="n">
         <v>0.1309680414252473</v>
       </c>
-      <c r="K21" s="5" t="inlineStr"/>
-      <c r="L21" s="5" t="inlineStr"/>
-      <c r="M21" s="5" t="inlineStr"/>
-      <c r="N21" s="5" t="n">
+      <c r="E21" s="5" t="n">
         <v>0.06959519299271208</v>
       </c>
     </row>
@@ -1264,39 +894,12 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0</v>
+        <v>0.0186353534014237</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0</v>
+        <v>0.1229790373034104</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>0.0186353534014237</v>
-      </c>
-      <c r="G22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="5" t="n">
-        <v>0.1229790373034104</v>
-      </c>
-      <c r="K22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="5" t="n">
         <v>0.07261432030965217</v>
       </c>
     </row>
@@ -1307,22 +910,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr"/>
-      <c r="D23" s="5" t="inlineStr"/>
-      <c r="E23" s="5" t="inlineStr"/>
-      <c r="F23" s="5" t="n">
+      <c r="C23" s="5" t="n">
         <v>0.009866055063108987</v>
       </c>
-      <c r="G23" s="5" t="inlineStr"/>
-      <c r="H23" s="5" t="inlineStr"/>
-      <c r="I23" s="5" t="inlineStr"/>
-      <c r="J23" s="5" t="n">
+      <c r="D23" s="5" t="n">
         <v>0.1044097138753775</v>
       </c>
-      <c r="K23" s="5" t="inlineStr"/>
-      <c r="L23" s="5" t="inlineStr"/>
-      <c r="M23" s="5" t="inlineStr"/>
-      <c r="N23" s="5" t="n">
+      <c r="E23" s="5" t="n">
         <v>0.06073652129841828</v>
       </c>
     </row>
@@ -1333,22 +927,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr"/>
-      <c r="D24" s="5" t="inlineStr"/>
-      <c r="E24" s="5" t="inlineStr"/>
-      <c r="F24" s="5" t="n">
+      <c r="C24" s="5" t="n">
         <v>0.03633002362258053</v>
       </c>
-      <c r="G24" s="5" t="inlineStr"/>
-      <c r="H24" s="5" t="inlineStr"/>
-      <c r="I24" s="5" t="inlineStr"/>
-      <c r="J24" s="5" t="n">
+      <c r="D24" s="5" t="n">
         <v>0.1444754480415646</v>
       </c>
-      <c r="K24" s="5" t="inlineStr"/>
-      <c r="L24" s="5" t="inlineStr"/>
-      <c r="M24" s="5" t="inlineStr"/>
-      <c r="N24" s="5" t="n">
+      <c r="E24" s="5" t="n">
         <v>0.08537360522007528</v>
       </c>
     </row>
@@ -1364,39 +949,12 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0</v>
+        <v>0.01475308140265535</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0</v>
+        <v>0.07012571547187928</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="5" t="n">
-        <v>0.01475308140265535</v>
-      </c>
-      <c r="G25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="5" t="n">
-        <v>0.07012571547187928</v>
-      </c>
-      <c r="K25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="5" t="n">
         <v>0.04298244830699171</v>
       </c>
     </row>
@@ -1407,22 +965,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C26" s="5" t="inlineStr"/>
-      <c r="D26" s="5" t="inlineStr"/>
-      <c r="E26" s="5" t="inlineStr"/>
-      <c r="F26" s="5" t="n">
+      <c r="C26" s="5" t="n">
         <v>0.007759712557055031</v>
       </c>
-      <c r="G26" s="5" t="inlineStr"/>
-      <c r="H26" s="5" t="inlineStr"/>
-      <c r="I26" s="5" t="inlineStr"/>
-      <c r="J26" s="5" t="n">
+      <c r="D26" s="5" t="n">
         <v>0.05679262064256044</v>
       </c>
-      <c r="K26" s="5" t="inlineStr"/>
-      <c r="L26" s="5" t="inlineStr"/>
-      <c r="M26" s="5" t="inlineStr"/>
-      <c r="N26" s="5" t="n">
+      <c r="E26" s="5" t="n">
         <v>0.0344473532036766</v>
       </c>
     </row>
@@ -1433,22 +982,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C27" s="5" t="inlineStr"/>
-      <c r="D27" s="5" t="inlineStr"/>
-      <c r="E27" s="5" t="inlineStr"/>
-      <c r="F27" s="5" t="n">
+      <c r="C27" s="5" t="n">
         <v>0.02429607042030155</v>
       </c>
-      <c r="G27" s="5" t="inlineStr"/>
-      <c r="H27" s="5" t="inlineStr"/>
-      <c r="I27" s="5" t="inlineStr"/>
-      <c r="J27" s="5" t="n">
+      <c r="D27" s="5" t="n">
         <v>0.08746551542063434</v>
       </c>
-      <c r="K27" s="5" t="inlineStr"/>
-      <c r="L27" s="5" t="inlineStr"/>
-      <c r="M27" s="5" t="inlineStr"/>
-      <c r="N27" s="5" t="n">
+      <c r="E27" s="5" t="n">
         <v>0.0516245773511913</v>
       </c>
     </row>
@@ -1464,39 +1004,12 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0</v>
+        <v>0.01342203222106385</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0</v>
+        <v>0.08335939018949527</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="5" t="n">
-        <v>0.01342203222106385</v>
-      </c>
-      <c r="G28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" s="5" t="n">
-        <v>0.08335939018949527</v>
-      </c>
-      <c r="K28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="5" t="n">
         <v>0.04935247601522098</v>
       </c>
     </row>
@@ -1507,22 +1020,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C29" s="5" t="inlineStr"/>
-      <c r="D29" s="5" t="inlineStr"/>
-      <c r="E29" s="5" t="inlineStr"/>
-      <c r="F29" s="5" t="n">
+      <c r="C29" s="5" t="n">
         <v>0.009490426092679763</v>
       </c>
-      <c r="G29" s="5" t="inlineStr"/>
-      <c r="H29" s="5" t="inlineStr"/>
-      <c r="I29" s="5" t="inlineStr"/>
-      <c r="J29" s="5" t="n">
+      <c r="D29" s="5" t="n">
         <v>0.07564579918247535</v>
       </c>
-      <c r="K29" s="5" t="inlineStr"/>
-      <c r="L29" s="5" t="inlineStr"/>
-      <c r="M29" s="5" t="inlineStr"/>
-      <c r="N29" s="5" t="n">
+      <c r="E29" s="5" t="n">
         <v>0.04508302511540447</v>
       </c>
     </row>
@@ -1533,22 +1037,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C30" s="5" t="inlineStr"/>
-      <c r="D30" s="5" t="inlineStr"/>
-      <c r="E30" s="5" t="inlineStr"/>
-      <c r="F30" s="5" t="n">
+      <c r="C30" s="5" t="n">
         <v>0.01785674746800205</v>
       </c>
-      <c r="G30" s="5" t="inlineStr"/>
-      <c r="H30" s="5" t="inlineStr"/>
-      <c r="I30" s="5" t="inlineStr"/>
-      <c r="J30" s="5" t="n">
+      <c r="D30" s="5" t="n">
         <v>0.09057722051449342</v>
       </c>
-      <c r="K30" s="5" t="inlineStr"/>
-      <c r="L30" s="5" t="inlineStr"/>
-      <c r="M30" s="5" t="inlineStr"/>
-      <c r="N30" s="5" t="n">
+      <c r="E30" s="5" t="n">
         <v>0.05406271006467305</v>
       </c>
     </row>
@@ -1560,7 +1055,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="10">
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A16:A18"/>
@@ -1569,9 +1064,6 @@
     <mergeCell ref="A28:A30"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A13:A15"/>
   </mergeCells>
@@ -1585,7 +1077,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1601,21 +1093,12 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="14" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para la alteración del tiroides en las últimas 2 semanas (tasa de respuesta: 99,91%)</t>
+          <t>Población que ha consumido medicamentos para la alteración del tiroides en las últimas dos semanas (tasa de respuesta: 99,82%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1624,85 +1107,31 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -1714,15 +1143,6 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1736,39 +1156,12 @@
         </is>
       </c>
       <c r="C4" s="6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="G4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6" t="n">
-        <v>36</v>
-      </c>
-      <c r="K4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="6" t="n">
         <v>41</v>
       </c>
     </row>
@@ -1780,39 +1173,12 @@
         </is>
       </c>
       <c r="C5" s="6" t="n">
-        <v>0</v>
+        <v>4452</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0</v>
+        <v>19761</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6" t="n">
-        <v>4452</v>
-      </c>
-      <c r="G5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6" t="n">
-        <v>19761</v>
-      </c>
-      <c r="K5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="6" t="n">
         <v>24213</v>
       </c>
     </row>
@@ -1823,22 +1189,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C6" s="6" t="inlineStr"/>
-      <c r="D6" s="6" t="inlineStr"/>
-      <c r="E6" s="6" t="inlineStr"/>
-      <c r="F6" s="6" t="n">
+      <c r="C6" s="6" t="n">
         <v>1659</v>
       </c>
-      <c r="G6" s="6" t="inlineStr"/>
-      <c r="H6" s="6" t="inlineStr"/>
-      <c r="I6" s="6" t="inlineStr"/>
-      <c r="J6" s="6" t="n">
+      <c r="D6" s="6" t="n">
         <v>13616</v>
       </c>
-      <c r="K6" s="6" t="inlineStr"/>
-      <c r="L6" s="6" t="inlineStr"/>
-      <c r="M6" s="6" t="inlineStr"/>
-      <c r="N6" s="6" t="n">
+      <c r="E6" s="6" t="n">
         <v>16801</v>
       </c>
     </row>
@@ -1849,22 +1206,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C7" s="6" t="inlineStr"/>
-      <c r="D7" s="6" t="inlineStr"/>
-      <c r="E7" s="6" t="inlineStr"/>
-      <c r="F7" s="6" t="n">
+      <c r="C7" s="6" t="n">
         <v>9890</v>
       </c>
-      <c r="G7" s="6" t="inlineStr"/>
-      <c r="H7" s="6" t="inlineStr"/>
-      <c r="I7" s="6" t="inlineStr"/>
-      <c r="J7" s="6" t="n">
+      <c r="D7" s="6" t="n">
         <v>26593</v>
       </c>
-      <c r="K7" s="6" t="inlineStr"/>
-      <c r="L7" s="6" t="inlineStr"/>
-      <c r="M7" s="6" t="inlineStr"/>
-      <c r="N7" s="6" t="n">
+      <c r="E7" s="6" t="n">
         <v>33067</v>
       </c>
     </row>
@@ -1880,39 +1228,12 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="G8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6" t="n">
-        <v>43</v>
-      </c>
-      <c r="K8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="6" t="n">
         <v>48</v>
       </c>
     </row>
@@ -1924,39 +1245,12 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0</v>
+        <v>5646</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0</v>
+        <v>32604</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6" t="n">
-        <v>5646</v>
-      </c>
-      <c r="G9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6" t="n">
-        <v>32604</v>
-      </c>
-      <c r="K9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="6" t="n">
         <v>38251</v>
       </c>
     </row>
@@ -1967,22 +1261,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C10" s="6" t="inlineStr"/>
-      <c r="D10" s="6" t="inlineStr"/>
-      <c r="E10" s="6" t="inlineStr"/>
-      <c r="F10" s="6" t="n">
+      <c r="C10" s="6" t="n">
         <v>2000</v>
       </c>
-      <c r="G10" s="6" t="inlineStr"/>
-      <c r="H10" s="6" t="inlineStr"/>
-      <c r="I10" s="6" t="inlineStr"/>
-      <c r="J10" s="6" t="n">
+      <c r="D10" s="6" t="n">
         <v>22863</v>
       </c>
-      <c r="K10" s="6" t="inlineStr"/>
-      <c r="L10" s="6" t="inlineStr"/>
-      <c r="M10" s="6" t="inlineStr"/>
-      <c r="N10" s="6" t="n">
+      <c r="E10" s="6" t="n">
         <v>27708</v>
       </c>
     </row>
@@ -1993,22 +1278,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C11" s="6" t="inlineStr"/>
-      <c r="D11" s="6" t="inlineStr"/>
-      <c r="E11" s="6" t="inlineStr"/>
-      <c r="F11" s="6" t="n">
+      <c r="C11" s="6" t="n">
         <v>12691</v>
       </c>
-      <c r="G11" s="6" t="inlineStr"/>
-      <c r="H11" s="6" t="inlineStr"/>
-      <c r="I11" s="6" t="inlineStr"/>
-      <c r="J11" s="6" t="n">
+      <c r="D11" s="6" t="n">
         <v>44441</v>
       </c>
-      <c r="K11" s="6" t="inlineStr"/>
-      <c r="L11" s="6" t="inlineStr"/>
-      <c r="M11" s="6" t="inlineStr"/>
-      <c r="N11" s="6" t="n">
+      <c r="E11" s="6" t="n">
         <v>50528</v>
       </c>
     </row>
@@ -2024,39 +1300,12 @@
         </is>
       </c>
       <c r="C12" s="6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="G12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="6" t="n">
-        <v>43</v>
-      </c>
-      <c r="K12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="6" t="n">
         <v>49</v>
       </c>
     </row>
@@ -2068,39 +1317,12 @@
         </is>
       </c>
       <c r="C13" s="6" t="n">
-        <v>0</v>
+        <v>4399</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0</v>
+        <v>26040</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="6" t="n">
-        <v>4399</v>
-      </c>
-      <c r="G13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="6" t="n">
-        <v>26040</v>
-      </c>
-      <c r="K13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="6" t="n">
         <v>30439</v>
       </c>
     </row>
@@ -2111,22 +1333,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="6" t="inlineStr"/>
-      <c r="D14" s="6" t="inlineStr"/>
-      <c r="E14" s="6" t="inlineStr"/>
-      <c r="F14" s="6" t="n">
+      <c r="C14" s="6" t="n">
         <v>1782</v>
       </c>
-      <c r="G14" s="6" t="inlineStr"/>
-      <c r="H14" s="6" t="inlineStr"/>
-      <c r="I14" s="6" t="inlineStr"/>
-      <c r="J14" s="6" t="n">
+      <c r="D14" s="6" t="n">
         <v>18955</v>
       </c>
-      <c r="K14" s="6" t="inlineStr"/>
-      <c r="L14" s="6" t="inlineStr"/>
-      <c r="M14" s="6" t="inlineStr"/>
-      <c r="N14" s="6" t="n">
+      <c r="E14" s="6" t="n">
         <v>22378</v>
       </c>
     </row>
@@ -2137,22 +1350,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="6" t="inlineStr"/>
-      <c r="D15" s="6" t="inlineStr"/>
-      <c r="E15" s="6" t="inlineStr"/>
-      <c r="F15" s="6" t="n">
+      <c r="C15" s="6" t="n">
         <v>9330</v>
       </c>
-      <c r="G15" s="6" t="inlineStr"/>
-      <c r="H15" s="6" t="inlineStr"/>
-      <c r="I15" s="6" t="inlineStr"/>
-      <c r="J15" s="6" t="n">
+      <c r="D15" s="6" t="n">
         <v>34294</v>
       </c>
-      <c r="K15" s="6" t="inlineStr"/>
-      <c r="L15" s="6" t="inlineStr"/>
-      <c r="M15" s="6" t="inlineStr"/>
-      <c r="N15" s="6" t="n">
+      <c r="E15" s="6" t="n">
         <v>40237</v>
       </c>
     </row>
@@ -2168,39 +1372,12 @@
         </is>
       </c>
       <c r="C16" s="6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="6" t="n">
-        <v>53</v>
-      </c>
-      <c r="K16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="6" t="n">
         <v>55</v>
       </c>
     </row>
@@ -2212,39 +1389,12 @@
         </is>
       </c>
       <c r="C17" s="6" t="n">
-        <v>0</v>
+        <v>1175</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>0</v>
+        <v>32886</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="6" t="n">
-        <v>1175</v>
-      </c>
-      <c r="G17" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="6" t="n">
-        <v>32886</v>
-      </c>
-      <c r="K17" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="6" t="n">
         <v>34061</v>
       </c>
     </row>
@@ -2255,22 +1405,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C18" s="6" t="inlineStr"/>
-      <c r="D18" s="6" t="inlineStr"/>
-      <c r="E18" s="6" t="inlineStr"/>
-      <c r="F18" s="6" t="n">
+      <c r="C18" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="G18" s="6" t="inlineStr"/>
-      <c r="H18" s="6" t="inlineStr"/>
-      <c r="I18" s="6" t="inlineStr"/>
-      <c r="J18" s="6" t="n">
+      <c r="D18" s="6" t="n">
         <v>24320</v>
       </c>
-      <c r="K18" s="6" t="inlineStr"/>
-      <c r="L18" s="6" t="inlineStr"/>
-      <c r="M18" s="6" t="inlineStr"/>
-      <c r="N18" s="6" t="n">
+      <c r="E18" s="6" t="n">
         <v>24930</v>
       </c>
     </row>
@@ -2281,22 +1422,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C19" s="6" t="inlineStr"/>
-      <c r="D19" s="6" t="inlineStr"/>
-      <c r="E19" s="6" t="inlineStr"/>
-      <c r="F19" s="6" t="n">
+      <c r="C19" s="6" t="n">
         <v>3803</v>
       </c>
-      <c r="G19" s="6" t="inlineStr"/>
-      <c r="H19" s="6" t="inlineStr"/>
-      <c r="I19" s="6" t="inlineStr"/>
-      <c r="J19" s="6" t="n">
+      <c r="D19" s="6" t="n">
         <v>42263</v>
       </c>
-      <c r="K19" s="6" t="inlineStr"/>
-      <c r="L19" s="6" t="inlineStr"/>
-      <c r="M19" s="6" t="inlineStr"/>
-      <c r="N19" s="6" t="n">
+      <c r="E19" s="6" t="n">
         <v>45393</v>
       </c>
     </row>
@@ -2312,39 +1444,12 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="G20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="6" t="n">
-        <v>46</v>
-      </c>
-      <c r="K20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="6" t="n">
         <v>50</v>
       </c>
     </row>
@@ -2356,39 +1461,12 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0</v>
+        <v>4477</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0</v>
+        <v>19718</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="6" t="n">
-        <v>4477</v>
-      </c>
-      <c r="G21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="6" t="n">
-        <v>19718</v>
-      </c>
-      <c r="K21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="6" t="n">
         <v>24195</v>
       </c>
     </row>
@@ -2399,22 +1477,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C22" s="6" t="inlineStr"/>
-      <c r="D22" s="6" t="inlineStr"/>
-      <c r="E22" s="6" t="inlineStr"/>
-      <c r="F22" s="6" t="n">
+      <c r="C22" s="6" t="n">
         <v>1365</v>
       </c>
-      <c r="G22" s="6" t="inlineStr"/>
-      <c r="H22" s="6" t="inlineStr"/>
-      <c r="I22" s="6" t="inlineStr"/>
-      <c r="J22" s="6" t="n">
+      <c r="D22" s="6" t="n">
         <v>14850</v>
       </c>
-      <c r="K22" s="6" t="inlineStr"/>
-      <c r="L22" s="6" t="inlineStr"/>
-      <c r="M22" s="6" t="inlineStr"/>
-      <c r="N22" s="6" t="n">
+      <c r="E22" s="6" t="n">
         <v>17998</v>
       </c>
     </row>
@@ -2425,22 +1494,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C23" s="6" t="inlineStr"/>
-      <c r="D23" s="6" t="inlineStr"/>
-      <c r="E23" s="6" t="inlineStr"/>
-      <c r="F23" s="6" t="n">
+      <c r="C23" s="6" t="n">
         <v>11011</v>
       </c>
-      <c r="G23" s="6" t="inlineStr"/>
-      <c r="H23" s="6" t="inlineStr"/>
-      <c r="I23" s="6" t="inlineStr"/>
-      <c r="J23" s="6" t="n">
+      <c r="D23" s="6" t="n">
         <v>26485</v>
       </c>
-      <c r="K23" s="6" t="inlineStr"/>
-      <c r="L23" s="6" t="inlineStr"/>
-      <c r="M23" s="6" t="inlineStr"/>
-      <c r="N23" s="6" t="n">
+      <c r="E23" s="6" t="n">
         <v>31941</v>
       </c>
     </row>
@@ -2456,39 +1516,12 @@
         </is>
       </c>
       <c r="C24" s="6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="G24" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="6" t="n">
-        <v>58</v>
-      </c>
-      <c r="K24" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="6" t="n">
         <v>62</v>
       </c>
     </row>
@@ -2500,39 +1533,12 @@
         </is>
       </c>
       <c r="C25" s="6" t="n">
-        <v>0</v>
+        <v>2069</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0</v>
+        <v>26987</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="6" t="n">
-        <v>2069</v>
-      </c>
-      <c r="G25" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="6" t="n">
-        <v>26987</v>
-      </c>
-      <c r="K25" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="6" t="n">
         <v>29056</v>
       </c>
     </row>
@@ -2543,22 +1549,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C26" s="6" t="inlineStr"/>
-      <c r="D26" s="6" t="inlineStr"/>
-      <c r="E26" s="6" t="inlineStr"/>
-      <c r="F26" s="6" t="n">
+      <c r="C26" s="6" t="n">
         <v>498</v>
       </c>
-      <c r="G26" s="6" t="inlineStr"/>
-      <c r="H26" s="6" t="inlineStr"/>
-      <c r="I26" s="6" t="inlineStr"/>
-      <c r="J26" s="6" t="n">
+      <c r="D26" s="6" t="n">
         <v>20620</v>
       </c>
-      <c r="K26" s="6" t="inlineStr"/>
-      <c r="L26" s="6" t="inlineStr"/>
-      <c r="M26" s="6" t="inlineStr"/>
-      <c r="N26" s="6" t="n">
+      <c r="E26" s="6" t="n">
         <v>22998</v>
       </c>
     </row>
@@ -2569,22 +1566,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C27" s="6" t="inlineStr"/>
-      <c r="D27" s="6" t="inlineStr"/>
-      <c r="E27" s="6" t="inlineStr"/>
-      <c r="F27" s="6" t="n">
+      <c r="C27" s="6" t="n">
         <v>5345</v>
       </c>
-      <c r="G27" s="6" t="inlineStr"/>
-      <c r="H27" s="6" t="inlineStr"/>
-      <c r="I27" s="6" t="inlineStr"/>
-      <c r="J27" s="6" t="n">
+      <c r="D27" s="6" t="n">
         <v>34543</v>
       </c>
-      <c r="K27" s="6" t="inlineStr"/>
-      <c r="L27" s="6" t="inlineStr"/>
-      <c r="M27" s="6" t="inlineStr"/>
-      <c r="N27" s="6" t="n">
+      <c r="E27" s="6" t="n">
         <v>37196</v>
       </c>
     </row>
@@ -2600,39 +1588,12 @@
         </is>
       </c>
       <c r="C28" s="6" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D28" s="6" t="n">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="E28" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="G28" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" s="6" t="n">
-        <v>128</v>
-      </c>
-      <c r="K28" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="6" t="n">
         <v>139</v>
       </c>
     </row>
@@ -2644,39 +1605,12 @@
         </is>
       </c>
       <c r="C29" s="6" t="n">
-        <v>0</v>
+        <v>13412</v>
       </c>
       <c r="D29" s="6" t="n">
-        <v>0</v>
+        <v>94858</v>
       </c>
       <c r="E29" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="6" t="n">
-        <v>13412</v>
-      </c>
-      <c r="G29" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="6" t="n">
-        <v>94858</v>
-      </c>
-      <c r="K29" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" s="6" t="n">
         <v>108269</v>
       </c>
     </row>
@@ -2687,22 +1621,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C30" s="6" t="inlineStr"/>
-      <c r="D30" s="6" t="inlineStr"/>
-      <c r="E30" s="6" t="inlineStr"/>
-      <c r="F30" s="6" t="n">
+      <c r="C30" s="6" t="n">
         <v>7100</v>
       </c>
-      <c r="G30" s="6" t="inlineStr"/>
-      <c r="H30" s="6" t="inlineStr"/>
-      <c r="I30" s="6" t="inlineStr"/>
-      <c r="J30" s="6" t="n">
+      <c r="D30" s="6" t="n">
         <v>80535</v>
       </c>
-      <c r="K30" s="6" t="inlineStr"/>
-      <c r="L30" s="6" t="inlineStr"/>
-      <c r="M30" s="6" t="inlineStr"/>
-      <c r="N30" s="6" t="n">
+      <c r="E30" s="6" t="n">
         <v>90559</v>
       </c>
     </row>
@@ -2713,22 +1638,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C31" s="6" t="inlineStr"/>
-      <c r="D31" s="6" t="inlineStr"/>
-      <c r="E31" s="6" t="inlineStr"/>
-      <c r="F31" s="6" t="n">
+      <c r="C31" s="6" t="n">
         <v>26146</v>
       </c>
-      <c r="G31" s="6" t="inlineStr"/>
-      <c r="H31" s="6" t="inlineStr"/>
-      <c r="I31" s="6" t="inlineStr"/>
-      <c r="J31" s="6" t="n">
+      <c r="D31" s="6" t="n">
         <v>111439</v>
       </c>
-      <c r="K31" s="6" t="inlineStr"/>
-      <c r="L31" s="6" t="inlineStr"/>
-      <c r="M31" s="6" t="inlineStr"/>
-      <c r="N31" s="6" t="n">
+      <c r="E31" s="6" t="n">
         <v>127294</v>
       </c>
     </row>
@@ -2744,39 +1660,12 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="6" t="n">
-        <v>14</v>
-      </c>
-      <c r="G32" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="K32" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" s="6" t="n">
         <v>95</v>
       </c>
     </row>
@@ -2788,39 +1677,12 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0</v>
+        <v>11774</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0</v>
+        <v>58205</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="6" t="n">
-        <v>11774</v>
-      </c>
-      <c r="G33" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" s="6" t="n">
-        <v>58205</v>
-      </c>
-      <c r="K33" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" s="6" t="n">
         <v>69979</v>
       </c>
     </row>
@@ -2831,22 +1693,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C34" s="6" t="inlineStr"/>
-      <c r="D34" s="6" t="inlineStr"/>
-      <c r="E34" s="6" t="inlineStr"/>
-      <c r="F34" s="6" t="n">
+      <c r="C34" s="6" t="n">
         <v>6193</v>
       </c>
-      <c r="G34" s="6" t="inlineStr"/>
-      <c r="H34" s="6" t="inlineStr"/>
-      <c r="I34" s="6" t="inlineStr"/>
-      <c r="J34" s="6" t="n">
+      <c r="D34" s="6" t="n">
         <v>47138</v>
       </c>
-      <c r="K34" s="6" t="inlineStr"/>
-      <c r="L34" s="6" t="inlineStr"/>
-      <c r="M34" s="6" t="inlineStr"/>
-      <c r="N34" s="6" t="n">
+      <c r="E34" s="6" t="n">
         <v>56083</v>
       </c>
     </row>
@@ -2857,22 +1710,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C35" s="6" t="inlineStr"/>
-      <c r="D35" s="6" t="inlineStr"/>
-      <c r="E35" s="6" t="inlineStr"/>
-      <c r="F35" s="6" t="n">
+      <c r="C35" s="6" t="n">
         <v>19390</v>
       </c>
-      <c r="G35" s="6" t="inlineStr"/>
-      <c r="H35" s="6" t="inlineStr"/>
-      <c r="I35" s="6" t="inlineStr"/>
-      <c r="J35" s="6" t="n">
+      <c r="D35" s="6" t="n">
         <v>72597</v>
       </c>
-      <c r="K35" s="6" t="inlineStr"/>
-      <c r="L35" s="6" t="inlineStr"/>
-      <c r="M35" s="6" t="inlineStr"/>
-      <c r="N35" s="6" t="n">
+      <c r="E35" s="6" t="n">
         <v>84049</v>
       </c>
     </row>
@@ -2888,39 +1732,12 @@
         </is>
       </c>
       <c r="C36" s="6" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D36" s="6" t="n">
-        <v>0</v>
+        <v>488</v>
       </c>
       <c r="E36" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="6" t="n">
-        <v>51</v>
-      </c>
-      <c r="G36" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" s="6" t="n">
-        <v>488</v>
-      </c>
-      <c r="K36" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" s="6" t="n">
         <v>539</v>
       </c>
     </row>
@@ -2932,39 +1749,12 @@
         </is>
       </c>
       <c r="C37" s="6" t="n">
-        <v>0</v>
+        <v>47404</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>0</v>
+        <v>311059</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="6" t="n">
-        <v>47404</v>
-      </c>
-      <c r="G37" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" s="6" t="n">
-        <v>311059</v>
-      </c>
-      <c r="K37" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" s="6" t="n">
         <v>358463</v>
       </c>
     </row>
@@ -2975,22 +1765,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C38" s="6" t="inlineStr"/>
-      <c r="D38" s="6" t="inlineStr"/>
-      <c r="E38" s="6" t="inlineStr"/>
-      <c r="F38" s="6" t="n">
+      <c r="C38" s="6" t="n">
         <v>33518</v>
       </c>
-      <c r="G38" s="6" t="inlineStr"/>
-      <c r="H38" s="6" t="inlineStr"/>
-      <c r="I38" s="6" t="inlineStr"/>
-      <c r="J38" s="6" t="n">
+      <c r="D38" s="6" t="n">
         <v>282275</v>
       </c>
-      <c r="K38" s="6" t="inlineStr"/>
-      <c r="L38" s="6" t="inlineStr"/>
-      <c r="M38" s="6" t="inlineStr"/>
-      <c r="N38" s="6" t="n">
+      <c r="E38" s="6" t="n">
         <v>327452</v>
       </c>
     </row>
@@ -3001,22 +1782,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C39" s="6" t="inlineStr"/>
-      <c r="D39" s="6" t="inlineStr"/>
-      <c r="E39" s="6" t="inlineStr"/>
-      <c r="F39" s="6" t="n">
+      <c r="C39" s="6" t="n">
         <v>63066</v>
       </c>
-      <c r="G39" s="6" t="inlineStr"/>
-      <c r="H39" s="6" t="inlineStr"/>
-      <c r="I39" s="6" t="inlineStr"/>
-      <c r="J39" s="6" t="n">
+      <c r="D39" s="6" t="n">
         <v>337993</v>
       </c>
-      <c r="K39" s="6" t="inlineStr"/>
-      <c r="L39" s="6" t="inlineStr"/>
-      <c r="M39" s="6" t="inlineStr"/>
-      <c r="N39" s="6" t="n">
+      <c r="E39" s="6" t="n">
         <v>392675</v>
       </c>
     </row>
@@ -3028,7 +1800,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="10">
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A36:A39"/>
@@ -3037,9 +1809,6 @@
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
